--- a/data/trans_orig/P19C04-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C04-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EC37BFA-BAE0-4582-995C-F3CEE1612F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA008E3A-4E68-4DFB-A45C-35CD121873FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3D9CD5C3-3443-4C73-AAA6-A76949D5155F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FED9E544-31DA-44C0-9752-7F0A9C2951D9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="601">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>20,39%</t>
   </si>
   <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
   </si>
   <si>
     <t>15,45%</t>
   </si>
   <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
   </si>
   <si>
     <t>17,86%</t>
   </si>
   <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>79,61%</t>
   </si>
   <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
   </si>
   <si>
     <t>84,55%</t>
   </si>
   <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
   </si>
   <si>
     <t>82,14%</t>
   </si>
   <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1732 +140,1708 @@
     <t>23,7%</t>
   </si>
   <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
     <t>19,95%</t>
   </si>
   <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2012 (Tasa respuesta: 86,83%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
   </si>
   <si>
     <t>18,83%</t>
   </si>
   <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
   </si>
   <si>
     <t>81,17%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>21,27%</t>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2015 (Tasa respuesta: 80,01%)</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
   </si>
   <si>
     <t>16,44%</t>
   </si>
   <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2023 (Tasa respuesta: 96,87%)</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
   </si>
   <si>
     <t>13,34%</t>
   </si>
   <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
   </si>
   <si>
     <t>86,66%</t>
   </si>
   <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2012 (Tasa respuesta: 86,83%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2015 (Tasa respuesta: 80,01%)</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2023 (Tasa respuesta: 96,87%)</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
+    <t>90,55%</t>
   </si>
   <si>
     <t>84,42%</t>
   </si>
   <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
   </si>
   <si>
     <t>11,08%</t>
   </si>
   <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
     <t>13,25%</t>
   </si>
   <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
   </si>
   <si>
     <t>88,92%</t>
   </si>
   <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
     <t>86,75%</t>
   </si>
   <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
+    <t>85,95%</t>
   </si>
 </sst>
 </file>
@@ -2277,7 +2253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2399B0-8093-44DA-A2CC-A0A7D449F003}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5AF5309-5E37-4213-9FCD-26B7D3DCD3B6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3212,7 +3188,7 @@
         <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3227,13 +3203,13 @@
         <v>159579</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>178</v>
@@ -3242,13 +3218,13 @@
         <v>183491</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>336</v>
@@ -3257,13 +3233,13 @@
         <v>343070</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,7 +3295,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3331,13 +3307,13 @@
         <v>90812</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>80</v>
@@ -3346,13 +3322,13 @@
         <v>82359</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>170</v>
@@ -3361,13 +3337,13 @@
         <v>173171</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,13 +3358,13 @@
         <v>373513</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>444</v>
@@ -3397,13 +3373,13 @@
         <v>457009</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>808</v>
@@ -3412,13 +3388,13 @@
         <v>830521</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3474,7 +3450,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3486,13 +3462,13 @@
         <v>103844</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H25" s="7">
         <v>80</v>
@@ -3501,13 +3477,13 @@
         <v>85389</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M25" s="7">
         <v>185</v>
@@ -3516,13 +3492,13 @@
         <v>189232</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,13 +3513,13 @@
         <v>421708</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>157</v>
+        <v>66</v>
       </c>
       <c r="H26" s="7">
         <v>485</v>
@@ -3552,13 +3528,13 @@
         <v>507023</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M26" s="7">
         <v>902</v>
@@ -3567,13 +3543,13 @@
         <v>928731</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3641,13 +3617,13 @@
         <v>489693</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H28" s="7">
         <v>395</v>
@@ -3656,13 +3632,13 @@
         <v>402562</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M28" s="7">
         <v>879</v>
@@ -3671,13 +3647,13 @@
         <v>892255</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,13 +3668,13 @@
         <v>1965049</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H29" s="7">
         <v>2284</v>
@@ -3707,13 +3683,13 @@
         <v>2338375</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>4207</v>
@@ -3722,13 +3698,13 @@
         <v>4303424</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,7 +3760,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3808,7 +3784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2CDA0F7-DC61-4503-9C3A-FE08B5D4FE05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74CE19BE-C0CC-4459-8CB1-BA3426C83166}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3825,7 +3801,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3930,39 +3906,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,39 +3951,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,39 +3996,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,13 +4045,13 @@
         <v>114159</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>74</v>
@@ -4084,13 +4060,13 @@
         <v>77560</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>179</v>
@@ -4099,13 +4075,13 @@
         <v>191719</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4120,13 +4096,13 @@
         <v>292171</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>328</v>
@@ -4135,13 +4111,13 @@
         <v>360263</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>605</v>
@@ -4150,13 +4126,13 @@
         <v>652434</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4224,13 +4200,13 @@
         <v>81594</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -4239,13 +4215,13 @@
         <v>65587</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>140</v>
@@ -4254,13 +4230,13 @@
         <v>147182</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4275,13 +4251,13 @@
         <v>212070</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H11" s="7">
         <v>244</v>
@@ -4290,13 +4266,13 @@
         <v>263165</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>454</v>
@@ -4305,13 +4281,13 @@
         <v>475234</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4379,13 +4355,13 @@
         <v>164127</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>105</v>
@@ -4394,13 +4370,13 @@
         <v>112935</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>261</v>
@@ -4409,13 +4385,13 @@
         <v>277063</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4430,13 +4406,13 @@
         <v>399510</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>443</v>
@@ -4445,13 +4421,13 @@
         <v>479119</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>817</v>
@@ -4460,13 +4436,13 @@
         <v>878628</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4534,13 +4510,13 @@
         <v>55251</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>42</v>
@@ -4549,13 +4525,13 @@
         <v>43485</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>93</v>
@@ -4564,13 +4540,13 @@
         <v>98736</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4585,13 +4561,13 @@
         <v>136807</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>147</v>
@@ -4600,13 +4576,13 @@
         <v>152089</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>272</v>
@@ -4615,13 +4591,13 @@
         <v>288896</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4689,13 +4665,13 @@
         <v>81238</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>60</v>
@@ -4704,13 +4680,13 @@
         <v>61686</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>256</v>
+        <v>37</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M19" s="7">
         <v>138</v>
@@ -4719,13 +4695,13 @@
         <v>142924</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4740,13 +4716,13 @@
         <v>168735</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H20" s="7">
         <v>194</v>
@@ -4755,13 +4731,13 @@
         <v>203144</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>45</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M20" s="7">
         <v>354</v>
@@ -4770,13 +4746,13 @@
         <v>371879</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4832,7 +4808,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4844,13 +4820,13 @@
         <v>117584</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H22" s="7">
         <v>74</v>
@@ -4859,13 +4835,13 @@
         <v>82703</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M22" s="7">
         <v>185</v>
@@ -4874,13 +4850,13 @@
         <v>200286</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>278</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4895,13 +4871,13 @@
         <v>457507</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H23" s="7">
         <v>497</v>
@@ -4910,13 +4886,13 @@
         <v>542256</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="M23" s="7">
         <v>923</v>
@@ -4925,13 +4901,13 @@
         <v>999764</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4987,7 +4963,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4999,13 +4975,13 @@
         <v>106244</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>291</v>
+        <v>144</v>
       </c>
       <c r="H25" s="7">
         <v>98</v>
@@ -5014,13 +4990,13 @@
         <v>107909</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="M25" s="7">
         <v>192</v>
@@ -5029,13 +5005,13 @@
         <v>214153</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5050,13 +5026,13 @@
         <v>527661</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>299</v>
+        <v>152</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="H26" s="7">
         <v>547</v>
@@ -5065,13 +5041,13 @@
         <v>593321</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="M26" s="7">
         <v>1037</v>
@@ -5080,13 +5056,13 @@
         <v>1120982</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,13 +5130,13 @@
         <v>720197</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="H28" s="7">
         <v>514</v>
@@ -5169,13 +5145,13 @@
         <v>551865</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="M28" s="7">
         <v>1188</v>
@@ -5184,13 +5160,13 @@
         <v>1272062</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,13 +5181,13 @@
         <v>2194461</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="H29" s="7">
         <v>2400</v>
@@ -5220,13 +5196,13 @@
         <v>2593356</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="M29" s="7">
         <v>4462</v>
@@ -5235,13 +5211,13 @@
         <v>4787818</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5297,7 +5273,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5321,7 +5297,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E0150D-97A6-4AA1-9C58-9FE849D62A0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67736B0C-84BA-468E-9C63-B4C72C9CB01F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5338,7 +5314,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5445,13 +5421,13 @@
         <v>50097</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>254</v>
+        <v>316</v>
       </c>
       <c r="H4" s="7">
         <v>32</v>
@@ -5460,13 +5436,13 @@
         <v>34509</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="M4" s="7">
         <v>76</v>
@@ -5475,13 +5451,13 @@
         <v>84606</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5496,13 +5472,13 @@
         <v>195121</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>264</v>
+        <v>323</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="H5" s="7">
         <v>206</v>
@@ -5511,13 +5487,13 @@
         <v>210730</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="M5" s="7">
         <v>383</v>
@@ -5526,13 +5502,13 @@
         <v>405851</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5600,13 +5576,13 @@
         <v>66706</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>341</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>47</v>
@@ -5615,13 +5591,13 @@
         <v>50779</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>52</v>
+        <v>333</v>
       </c>
       <c r="M7" s="7">
         <v>112</v>
@@ -5630,13 +5606,13 @@
         <v>117485</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5651,13 +5627,13 @@
         <v>296459</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>347</v>
+        <v>196</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="H8" s="7">
         <v>325</v>
@@ -5666,13 +5642,13 @@
         <v>342548</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>62</v>
+        <v>340</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="M8" s="7">
         <v>602</v>
@@ -5681,13 +5657,13 @@
         <v>639007</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5755,13 +5731,13 @@
         <v>32145</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>356</v>
+        <v>202</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -5770,13 +5746,13 @@
         <v>25724</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="M10" s="7">
         <v>60</v>
@@ -5785,13 +5761,13 @@
         <v>57869</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,16 +5779,16 @@
         <v>269</v>
       </c>
       <c r="D11" s="7">
-        <v>258361</v>
+        <v>258362</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>364</v>
+        <v>211</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="H11" s="7">
         <v>279</v>
@@ -5821,13 +5797,13 @@
         <v>282040</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="M11" s="7">
         <v>548</v>
@@ -5836,13 +5812,13 @@
         <v>540401</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,7 +5830,7 @@
         <v>303</v>
       </c>
       <c r="D12" s="7">
-        <v>290506</v>
+        <v>290507</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5910,13 +5886,13 @@
         <v>76163</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -5925,13 +5901,13 @@
         <v>46272</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>310</v>
+        <v>365</v>
       </c>
       <c r="M13" s="7">
         <v>114</v>
@@ -5940,13 +5916,13 @@
         <v>122435</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5961,13 +5937,13 @@
         <v>253884</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="H14" s="7">
         <v>280</v>
@@ -5976,13 +5952,13 @@
         <v>302589</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>319</v>
+        <v>373</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="M14" s="7">
         <v>523</v>
@@ -5991,13 +5967,13 @@
         <v>556473</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6065,13 +6041,13 @@
         <v>19876</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -6080,13 +6056,13 @@
         <v>23122</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>392</v>
+        <v>344</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
@@ -6095,13 +6071,13 @@
         <v>42997</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6116,13 +6092,13 @@
         <v>99346</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="H17" s="7">
         <v>130</v>
@@ -6131,13 +6107,13 @@
         <v>122378</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="M17" s="7">
         <v>228</v>
@@ -6146,13 +6122,13 @@
         <v>221725</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,13 +6196,13 @@
         <v>66031</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="H19" s="7">
         <v>46</v>
@@ -6235,13 +6211,13 @@
         <v>50047</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="M19" s="7">
         <v>111</v>
@@ -6250,13 +6226,13 @@
         <v>116079</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6271,13 +6247,13 @@
         <v>167584</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="H20" s="7">
         <v>194</v>
@@ -6286,13 +6262,13 @@
         <v>197090</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="M20" s="7">
         <v>359</v>
@@ -6301,13 +6277,13 @@
         <v>364674</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6363,7 +6339,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6375,13 +6351,13 @@
         <v>59901</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="H22" s="7">
         <v>45</v>
@@ -6390,13 +6366,13 @@
         <v>50285</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>429</v>
+        <v>58</v>
       </c>
       <c r="M22" s="7">
         <v>97</v>
@@ -6405,13 +6381,13 @@
         <v>110186</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>432</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6426,13 +6402,13 @@
         <v>382406</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="H23" s="7">
         <v>416</v>
@@ -6441,13 +6417,13 @@
         <v>436766</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>437</v>
+        <v>68</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="M23" s="7">
         <v>750</v>
@@ -6456,13 +6432,13 @@
         <v>819172</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>29</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6518,7 +6494,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6530,13 +6506,13 @@
         <v>104808</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="H25" s="7">
         <v>84</v>
@@ -6545,13 +6521,13 @@
         <v>92606</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>170</v>
+        <v>431</v>
       </c>
       <c r="M25" s="7">
         <v>187</v>
@@ -6560,13 +6536,13 @@
         <v>197414</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6581,28 +6557,28 @@
         <v>535444</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="H26" s="7">
         <v>551</v>
       </c>
       <c r="I26" s="7">
-        <v>598736</v>
+        <v>598735</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>179</v>
+        <v>439</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="M26" s="7">
         <v>1064</v>
@@ -6611,13 +6587,13 @@
         <v>1134179</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6644,7 +6620,7 @@
         <v>635</v>
       </c>
       <c r="I27" s="7">
-        <v>691342</v>
+        <v>691341</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -6688,10 +6664,10 @@
         <v>17</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="H28" s="7">
         <v>345</v>
@@ -6700,13 +6676,13 @@
         <v>373344</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>149</v>
+        <v>448</v>
       </c>
       <c r="M28" s="7">
         <v>799</v>
@@ -6715,13 +6691,13 @@
         <v>849072</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,16 +6709,16 @@
         <v>2076</v>
       </c>
       <c r="D29" s="7">
-        <v>2188606</v>
+        <v>2188605</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="H29" s="7">
         <v>2381</v>
@@ -6751,13 +6727,13 @@
         <v>2492876</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>158</v>
+        <v>454</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="M29" s="7">
         <v>4457</v>
@@ -6766,13 +6742,13 @@
         <v>4681482</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6784,7 +6760,7 @@
         <v>2530</v>
       </c>
       <c r="D30" s="7">
-        <v>2664334</v>
+        <v>2664333</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -6828,7 +6804,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6852,7 +6828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE563755-F618-4FEC-AB23-B5BBCA8DCA31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F07C32-00FB-4725-8728-B8002A810958}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6869,7 +6845,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6976,13 +6952,13 @@
         <v>36148</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>474</v>
+        <v>271</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="H4" s="7">
         <v>60</v>
@@ -6991,13 +6967,13 @@
         <v>29009</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="M4" s="7">
         <v>113</v>
@@ -7006,13 +6982,13 @@
         <v>65157</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7027,13 +7003,13 @@
         <v>219122</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>484</v>
+        <v>280</v>
       </c>
       <c r="H5" s="7">
         <v>471</v>
@@ -7042,13 +7018,13 @@
         <v>240435</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="M5" s="7">
         <v>735</v>
@@ -7057,13 +7033,13 @@
         <v>459558</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7131,13 +7107,13 @@
         <v>38396</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="H7" s="7">
         <v>61</v>
@@ -7146,13 +7122,13 @@
         <v>44118</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="M7" s="7">
         <v>93</v>
@@ -7161,13 +7137,13 @@
         <v>82514</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7182,13 +7158,13 @@
         <v>469108</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="H8" s="7">
         <v>635</v>
@@ -7197,13 +7173,13 @@
         <v>495976</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="M8" s="7">
         <v>974</v>
@@ -7212,13 +7188,13 @@
         <v>965084</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7286,13 +7262,13 @@
         <v>57043</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>510</v>
+        <v>92</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="H10" s="7">
         <v>93</v>
@@ -7301,13 +7277,13 @@
         <v>56923</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="M10" s="7">
         <v>171</v>
@@ -7316,13 +7292,13 @@
         <v>113966</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7337,13 +7313,13 @@
         <v>250290</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>519</v>
+        <v>101</v>
       </c>
       <c r="H11" s="7">
         <v>424</v>
@@ -7352,13 +7328,13 @@
         <v>301323</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="M11" s="7">
         <v>691</v>
@@ -7367,13 +7343,13 @@
         <v>551613</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7441,13 +7417,13 @@
         <v>51328</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="H13" s="7">
         <v>70</v>
@@ -7456,13 +7432,13 @@
         <v>40779</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>343</v>
+        <v>510</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="M13" s="7">
         <v>121</v>
@@ -7471,13 +7447,13 @@
         <v>92108</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7492,13 +7468,13 @@
         <v>268322</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="H14" s="7">
         <v>524</v>
@@ -7507,13 +7483,13 @@
         <v>385373</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>350</v>
+        <v>519</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="M14" s="7">
         <v>761</v>
@@ -7522,13 +7498,13 @@
         <v>653694</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7596,13 +7572,13 @@
         <v>38781</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>541</v>
+        <v>368</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>458</v>
+        <v>525</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="H16" s="7">
         <v>69</v>
@@ -7611,13 +7587,13 @@
         <v>28962</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="M16" s="7">
         <v>134</v>
@@ -7626,13 +7602,13 @@
         <v>67743</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>116</v>
+        <v>530</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>459</v>
+        <v>532</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7647,13 +7623,13 @@
         <v>146288</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>547</v>
+        <v>376</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>466</v>
+        <v>534</v>
       </c>
       <c r="H17" s="7">
         <v>408</v>
@@ -7662,13 +7638,13 @@
         <v>195963</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="M17" s="7">
         <v>606</v>
@@ -7677,13 +7653,13 @@
         <v>342251</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>124</v>
+        <v>538</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>465</v>
+        <v>539</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7751,13 +7727,13 @@
         <v>52521</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="H19" s="7">
         <v>114</v>
@@ -7766,13 +7742,13 @@
         <v>52309</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="M19" s="7">
         <v>203</v>
@@ -7781,13 +7757,13 @@
         <v>104830</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>190</v>
+        <v>547</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>97</v>
+        <v>549</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7802,13 +7778,13 @@
         <v>208256</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="H20" s="7">
         <v>326</v>
@@ -7817,13 +7793,13 @@
         <v>211899</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="M20" s="7">
         <v>581</v>
@@ -7832,13 +7808,13 @@
         <v>420155</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>200</v>
+        <v>556</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>557</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7894,7 +7870,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7906,13 +7882,13 @@
         <v>74484</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>565</v>
+        <v>512</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>462</v>
+        <v>560</v>
       </c>
       <c r="H22" s="7">
         <v>90</v>
@@ -7921,13 +7897,13 @@
         <v>63038</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="M22" s="7">
         <v>163</v>
@@ -7936,13 +7912,13 @@
         <v>137521</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>431</v>
+        <v>564</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>361</v>
+        <v>565</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>430</v>
+        <v>566</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7957,13 +7933,13 @@
         <v>532765</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>570</v>
+        <v>520</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>469</v>
+        <v>567</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H23" s="7">
         <v>833</v>
@@ -7972,13 +7948,13 @@
         <v>718671</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="M23" s="7">
         <v>1341</v>
@@ -7987,13 +7963,13 @@
         <v>1251437</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>441</v>
+        <v>572</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>439</v>
+        <v>573</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>371</v>
+        <v>574</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8049,7 +8025,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8094,10 +8070,10 @@
         <v>581</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>76</v>
+        <v>582</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8112,13 +8088,13 @@
         <v>666998</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H26" s="7">
         <v>912</v>
@@ -8127,13 +8103,13 @@
         <v>755511</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M26" s="7">
         <v>1482</v>
@@ -8142,13 +8118,13 @@
         <v>1422509</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>85</v>
+        <v>592</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8216,10 +8192,10 @@
         <v>514717</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>591</v>
+        <v>219</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>592</v>
+        <v>146</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>593</v>
@@ -8234,10 +8210,10 @@
         <v>594</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>595</v>
+        <v>564</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>596</v>
+        <v>351</v>
       </c>
       <c r="M28" s="7">
         <v>1298</v>
@@ -8246,13 +8222,13 @@
         <v>926413</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>598</v>
+        <v>384</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8267,13 +8243,13 @@
         <v>2761149</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>600</v>
+        <v>229</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>602</v>
+        <v>154</v>
       </c>
       <c r="H29" s="7">
         <v>4533</v>
@@ -8282,13 +8258,13 @@
         <v>3305152</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>604</v>
+        <v>358</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>605</v>
+        <v>572</v>
       </c>
       <c r="M29" s="7">
         <v>7171</v>
@@ -8297,13 +8273,13 @@
         <v>6066301</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>608</v>
+        <v>393</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8359,7 +8335,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C04-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C04-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA008E3A-4E68-4DFB-A45C-35CD121873FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BEE4395-7C54-44DD-B649-B2C36384F442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FED9E544-31DA-44C0-9752-7F0A9C2951D9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BC6FA000-4F7F-4057-BCF3-190CC304094B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="603">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -77,1771 +77,1777 @@
     <t>20,39%</t>
   </si>
   <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
   </si>
   <si>
     <t>15,45%</t>
   </si>
   <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
   </si>
   <si>
     <t>17,86%</t>
   </si>
   <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2012 (Tasa respuesta: 86,83%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2016 (Tasa respuesta: 80,01%)</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
     <t>14,35%</t>
   </si>
   <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
   </si>
   <si>
     <t>85,65%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2012 (Tasa respuesta: 86,83%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
+    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2023 (Tasa respuesta: 96,87%)</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
   </si>
   <si>
     <t>15,71%</t>
   </si>
   <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
   </si>
   <si>
     <t>84,29%</t>
   </si>
   <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2015 (Tasa respuesta: 80,01%)</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
   </si>
   <si>
     <t>87,9%</t>
   </si>
   <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
   </si>
   <si>
     <t>87,68%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2023 (Tasa respuesta: 96,87%)</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
   </si>
 </sst>
 </file>
@@ -2253,7 +2259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5AF5309-5E37-4213-9FCD-26B7D3DCD3B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CDA5AAE-BA56-4081-9A79-BF6DA4E4B0D9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3188,7 +3194,7 @@
         <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,13 +3209,13 @@
         <v>159579</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>178</v>
@@ -3218,13 +3224,13 @@
         <v>183491</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>336</v>
@@ -3233,13 +3239,13 @@
         <v>343070</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,7 +3301,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3307,13 +3313,13 @@
         <v>90812</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>80</v>
@@ -3322,13 +3328,13 @@
         <v>82359</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>170</v>
@@ -3337,13 +3343,13 @@
         <v>173171</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,13 +3364,13 @@
         <v>373513</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>444</v>
@@ -3373,13 +3379,13 @@
         <v>457009</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>808</v>
@@ -3388,13 +3394,13 @@
         <v>830521</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,7 +3456,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3462,13 +3468,13 @@
         <v>103844</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>57</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>80</v>
@@ -3477,13 +3483,13 @@
         <v>85389</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>185</v>
@@ -3492,13 +3498,13 @@
         <v>189232</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,13 +3519,13 @@
         <v>421708</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>66</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>485</v>
@@ -3528,13 +3534,13 @@
         <v>507023</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>902</v>
@@ -3543,13 +3549,13 @@
         <v>928731</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,13 +3623,13 @@
         <v>489693</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>395</v>
@@ -3632,13 +3638,13 @@
         <v>402562</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>879</v>
@@ -3647,13 +3653,13 @@
         <v>892255</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3668,13 +3674,13 @@
         <v>1965049</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>2284</v>
@@ -3683,13 +3689,13 @@
         <v>2338375</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>4207</v>
@@ -3698,13 +3704,13 @@
         <v>4303424</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3760,7 +3766,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3784,7 +3790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74CE19BE-C0CC-4459-8CB1-BA3426C83166}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C8DEDE-EDBB-49FF-83B8-1BD1E5AA242E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3801,7 +3807,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3906,39 +3912,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3951,39 +3957,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,39 +4002,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4045,13 +4051,13 @@
         <v>114159</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>74</v>
@@ -4060,13 +4066,13 @@
         <v>77560</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>179</v>
@@ -4075,13 +4081,13 @@
         <v>191719</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4096,13 +4102,13 @@
         <v>292171</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>328</v>
@@ -4111,13 +4117,13 @@
         <v>360263</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>605</v>
@@ -4126,13 +4132,13 @@
         <v>652434</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4200,13 +4206,13 @@
         <v>81594</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -4215,13 +4221,13 @@
         <v>65587</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M10" s="7">
         <v>140</v>
@@ -4230,13 +4236,13 @@
         <v>147182</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4251,13 +4257,13 @@
         <v>212070</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H11" s="7">
         <v>244</v>
@@ -4266,13 +4272,13 @@
         <v>263165</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>454</v>
@@ -4281,13 +4287,13 @@
         <v>475234</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4355,13 +4361,13 @@
         <v>164127</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>105</v>
@@ -4370,13 +4376,13 @@
         <v>112935</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>261</v>
@@ -4385,13 +4391,13 @@
         <v>277063</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>89</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4406,13 +4412,13 @@
         <v>399510</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H14" s="7">
         <v>443</v>
@@ -4421,13 +4427,13 @@
         <v>479119</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M14" s="7">
         <v>817</v>
@@ -4436,13 +4442,13 @@
         <v>878628</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4510,13 +4516,13 @@
         <v>55251</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>42</v>
@@ -4525,13 +4531,13 @@
         <v>43485</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>147</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M16" s="7">
         <v>93</v>
@@ -4540,13 +4546,13 @@
         <v>98736</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4561,13 +4567,13 @@
         <v>136807</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H17" s="7">
         <v>147</v>
@@ -4576,13 +4582,13 @@
         <v>152089</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>157</v>
       </c>
       <c r="M17" s="7">
         <v>272</v>
@@ -4680,13 +4686,13 @@
         <v>61686</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>37</v>
+        <v>254</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M19" s="7">
         <v>138</v>
@@ -4695,13 +4701,13 @@
         <v>142924</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4716,13 +4722,13 @@
         <v>168735</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H20" s="7">
         <v>194</v>
@@ -4731,13 +4737,13 @@
         <v>203144</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
         <v>354</v>
@@ -4746,13 +4752,13 @@
         <v>371879</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,7 +4814,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4820,13 +4826,13 @@
         <v>117584</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
         <v>74</v>
@@ -4835,13 +4841,13 @@
         <v>82703</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
         <v>185</v>
@@ -4850,13 +4856,13 @@
         <v>200286</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,13 +4877,13 @@
         <v>457507</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
         <v>497</v>
@@ -4886,13 +4892,13 @@
         <v>542256</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M23" s="7">
         <v>923</v>
@@ -4901,13 +4907,13 @@
         <v>999764</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>23</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4963,7 +4969,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4975,13 +4981,13 @@
         <v>106244</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>284</v>
+        <v>76</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="H25" s="7">
         <v>98</v>
@@ -4990,13 +4996,13 @@
         <v>107909</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M25" s="7">
         <v>192</v>
@@ -5005,13 +5011,13 @@
         <v>214153</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,13 +5032,13 @@
         <v>527661</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>291</v>
+        <v>85</v>
       </c>
       <c r="H26" s="7">
         <v>547</v>
@@ -5041,13 +5047,13 @@
         <v>593321</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="M26" s="7">
         <v>1037</v>
@@ -5056,13 +5062,13 @@
         <v>1120982</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5130,13 +5136,13 @@
         <v>720197</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="H28" s="7">
         <v>514</v>
@@ -5145,13 +5151,13 @@
         <v>551865</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="M28" s="7">
         <v>1188</v>
@@ -5160,13 +5166,13 @@
         <v>1272062</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,13 +5187,13 @@
         <v>2194461</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H29" s="7">
         <v>2400</v>
@@ -5196,28 +5202,28 @@
         <v>2593356</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>308</v>
+        <v>159</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="M29" s="7">
         <v>4462</v>
       </c>
       <c r="N29" s="7">
-        <v>4787818</v>
+        <v>4787817</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5259,7 +5265,7 @@
         <v>5650</v>
       </c>
       <c r="N30" s="7">
-        <v>6059880</v>
+        <v>6059879</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5273,7 +5279,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5297,7 +5303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67736B0C-84BA-468E-9C63-B4C72C9CB01F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854527A9-78FC-4892-8EC1-D9DC5B7E34D9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5314,7 +5320,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5421,13 +5427,13 @@
         <v>50097</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H4" s="7">
         <v>32</v>
@@ -5436,13 +5442,13 @@
         <v>34509</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>318</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="M4" s="7">
         <v>76</v>
@@ -5451,13 +5457,13 @@
         <v>84606</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5472,13 +5478,13 @@
         <v>195121</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H5" s="7">
         <v>206</v>
@@ -5487,13 +5493,13 @@
         <v>210730</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>327</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>383</v>
@@ -5502,13 +5508,13 @@
         <v>405851</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5582,7 +5588,7 @@
         <v>331</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>187</v>
+        <v>332</v>
       </c>
       <c r="H7" s="7">
         <v>47</v>
@@ -5591,13 +5597,13 @@
         <v>50779</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M7" s="7">
         <v>112</v>
@@ -5606,13 +5612,13 @@
         <v>117485</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5627,13 +5633,13 @@
         <v>296459</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>196</v>
+        <v>340</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="H8" s="7">
         <v>325</v>
@@ -5642,13 +5648,13 @@
         <v>342548</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="M8" s="7">
         <v>602</v>
@@ -5657,13 +5663,13 @@
         <v>639007</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5731,13 +5737,13 @@
         <v>32145</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>202</v>
+        <v>350</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -5746,13 +5752,13 @@
         <v>25724</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="M10" s="7">
         <v>60</v>
@@ -5761,13 +5767,13 @@
         <v>57869</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5782,13 +5788,13 @@
         <v>258362</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>211</v>
+        <v>358</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="H11" s="7">
         <v>279</v>
@@ -5797,13 +5803,13 @@
         <v>282040</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="M11" s="7">
         <v>548</v>
@@ -5812,13 +5818,13 @@
         <v>540401</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5886,13 +5892,13 @@
         <v>76163</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>361</v>
+        <v>165</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -5901,13 +5907,13 @@
         <v>46272</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="M13" s="7">
         <v>114</v>
@@ -5916,13 +5922,13 @@
         <v>122435</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>368</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,13 +5943,13 @@
         <v>253884</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>371</v>
+        <v>175</v>
       </c>
       <c r="H14" s="7">
         <v>280</v>
@@ -5952,13 +5958,13 @@
         <v>302589</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="M14" s="7">
         <v>523</v>
@@ -5967,13 +5973,13 @@
         <v>556473</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>376</v>
+        <v>118</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6041,13 +6047,13 @@
         <v>19876</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>378</v>
+        <v>56</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -6056,13 +6062,13 @@
         <v>23122</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
@@ -6071,13 +6077,13 @@
         <v>42997</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6092,13 +6098,13 @@
         <v>99346</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>386</v>
+        <v>64</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H17" s="7">
         <v>130</v>
@@ -6107,13 +6113,13 @@
         <v>122378</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="M17" s="7">
         <v>228</v>
@@ -6122,13 +6128,13 @@
         <v>221725</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,13 +6202,13 @@
         <v>66031</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H19" s="7">
         <v>46</v>
@@ -6211,13 +6217,13 @@
         <v>50047</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>398</v>
+        <v>336</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M19" s="7">
         <v>111</v>
@@ -6226,13 +6232,13 @@
         <v>116079</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,13 +6253,13 @@
         <v>167584</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H20" s="7">
         <v>194</v>
@@ -6262,13 +6268,13 @@
         <v>197090</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>408</v>
+        <v>345</v>
       </c>
       <c r="M20" s="7">
         <v>359</v>
@@ -6339,7 +6345,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6372,7 +6378,7 @@
         <v>416</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>58</v>
+        <v>417</v>
       </c>
       <c r="M22" s="7">
         <v>97</v>
@@ -6381,13 +6387,13 @@
         <v>110186</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>18</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,13 +6408,13 @@
         <v>382406</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H23" s="7">
         <v>416</v>
@@ -6417,13 +6423,13 @@
         <v>436766</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>68</v>
+        <v>425</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="M23" s="7">
         <v>750</v>
@@ -6432,13 +6438,13 @@
         <v>819172</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>29</v>
+        <v>428</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6494,7 +6500,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6506,13 +6512,13 @@
         <v>104808</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="H25" s="7">
         <v>84</v>
@@ -6521,13 +6527,13 @@
         <v>92606</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>431</v>
+        <v>274</v>
       </c>
       <c r="M25" s="7">
         <v>187</v>
@@ -6536,13 +6542,13 @@
         <v>197414</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6557,13 +6563,13 @@
         <v>535444</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="H26" s="7">
         <v>551</v>
@@ -6572,13 +6578,13 @@
         <v>598735</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>439</v>
+        <v>282</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M26" s="7">
         <v>1064</v>
@@ -6587,13 +6593,13 @@
         <v>1134179</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6664,10 +6670,10 @@
         <v>17</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H28" s="7">
         <v>345</v>
@@ -6676,13 +6682,13 @@
         <v>373344</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>448</v>
+        <v>149</v>
       </c>
       <c r="M28" s="7">
         <v>799</v>
@@ -6691,13 +6697,13 @@
         <v>849072</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6709,16 +6715,16 @@
         <v>2076</v>
       </c>
       <c r="D29" s="7">
-        <v>2188605</v>
+        <v>2188606</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H29" s="7">
         <v>2381</v>
@@ -6727,10 +6733,10 @@
         <v>2492876</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>454</v>
+        <v>158</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>455</v>
@@ -6745,10 +6751,10 @@
         <v>456</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6760,7 +6766,7 @@
         <v>2530</v>
       </c>
       <c r="D30" s="7">
-        <v>2664333</v>
+        <v>2664334</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -6804,7 +6810,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6828,7 +6834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F07C32-00FB-4725-8728-B8002A810958}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C46597-FAF2-4960-AA6E-4361B76955F6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6955,7 +6961,7 @@
         <v>459</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>271</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>460</v>
@@ -7009,7 +7015,7 @@
         <v>468</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>280</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
         <v>471</v>
@@ -7277,7 +7283,7 @@
         <v>56923</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>495</v>
@@ -7328,7 +7334,7 @@
         <v>301323</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>502</v>
@@ -7572,13 +7578,13 @@
         <v>38781</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>368</v>
+        <v>525</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>526</v>
+        <v>193</v>
       </c>
       <c r="H16" s="7">
         <v>69</v>
@@ -7623,10 +7629,10 @@
         <v>146288</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>376</v>
+        <v>533</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>533</v>
+        <v>201</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>534</v>
@@ -7870,7 +7876,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -8025,7 +8031,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8040,10 +8046,10 @@
         <v>575</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>576</v>
+        <v>36</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>577</v>
+        <v>302</v>
       </c>
       <c r="H25" s="7">
         <v>127</v>
@@ -8052,13 +8058,13 @@
         <v>96558</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>578</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>580</v>
       </c>
       <c r="M25" s="7">
         <v>300</v>
@@ -8067,13 +8073,13 @@
         <v>262573</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>581</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8088,13 +8094,13 @@
         <v>666998</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>585</v>
+        <v>311</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>586</v>
+        <v>46</v>
       </c>
       <c r="H26" s="7">
         <v>912</v>
@@ -8103,13 +8109,13 @@
         <v>755511</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="M26" s="7">
         <v>1482</v>
@@ -8118,13 +8124,13 @@
         <v>1422509</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8192,13 +8198,13 @@
         <v>514717</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>219</v>
+        <v>589</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="H28" s="7">
         <v>684</v>
@@ -8207,13 +8213,13 @@
         <v>411696</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>564</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>351</v>
+        <v>592</v>
       </c>
       <c r="M28" s="7">
         <v>1298</v>
@@ -8222,13 +8228,13 @@
         <v>926413</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>595</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8243,13 +8249,13 @@
         <v>2761149</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>229</v>
+        <v>596</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>597</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H29" s="7">
         <v>4533</v>
@@ -8261,7 +8267,7 @@
         <v>598</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>358</v>
+        <v>599</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>572</v>
@@ -8273,13 +8279,13 @@
         <v>6066301</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>393</v>
+        <v>602</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8335,7 +8341,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C04-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C04-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BEE4395-7C54-44DD-B649-B2C36384F442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{734DAEAF-4493-4C85-B94E-18B94ED6126D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BC6FA000-4F7F-4057-BCF3-190CC304094B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{78A283C0-2798-4AFD-B611-93DA14BE484F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="609">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>20,39%</t>
   </si>
   <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
   </si>
   <si>
     <t>15,45%</t>
   </si>
   <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
   </si>
   <si>
     <t>17,86%</t>
   </si>
   <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>79,61%</t>
   </si>
   <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
   </si>
   <si>
     <t>84,55%</t>
   </si>
   <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
   </si>
   <si>
     <t>82,14%</t>
   </si>
   <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>23,7%</t>
   </si>
   <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
   </si>
   <si>
     <t>19,49%</t>
   </si>
   <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
   </si>
   <si>
     <t>21,52%</t>
   </si>
   <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
   </si>
   <si>
     <t>76,3%</t>
   </si>
   <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
   </si>
   <si>
     <t>80,51%</t>
   </si>
   <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
   </si>
   <si>
     <t>78,48%</t>
   </si>
   <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,1657 +197,1675 @@
     <t>21,27%</t>
   </si>
   <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
   </si>
   <si>
     <t>12,45%</t>
   </si>
   <si>
-    <t>8,97%</t>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2012 (Tasa respuesta: 86,83%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2016 (Tasa respuesta: 80,01%)</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
   </si>
   <si>
     <t>16,67%</t>
   </si>
   <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2023 (Tasa respuesta: 96,87%)</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
   </si>
   <si>
     <t>19,82%</t>
   </si>
   <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
   </si>
   <si>
     <t>80,18%</t>
   </si>
   <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2012 (Tasa respuesta: 86,83%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
   </si>
   <si>
     <t>26,37%</t>
   </si>
   <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
   </si>
   <si>
     <t>73,63%</t>
   </si>
   <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2016 (Tasa respuesta: 80,01%)</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
   </si>
   <si>
     <t>17,0%</t>
   </si>
   <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
   </si>
   <si>
     <t>83,0%</t>
   </si>
   <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2023 (Tasa respuesta: 96,87%)</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
+    <t>85,8%</t>
   </si>
   <si>
     <t>88,92%</t>
   </si>
   <si>
-    <t>87,9%</t>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
   </si>
   <si>
     <t>86,75%</t>
   </si>
   <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
   </si>
 </sst>
 </file>
@@ -2259,7 +2277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CDA5AAE-BA56-4081-9A79-BF6DA4E4B0D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13EF290-846E-4BD2-AADE-615789B0E3CA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3623,13 +3641,13 @@
         <v>489693</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>395</v>
@@ -3638,13 +3656,13 @@
         <v>402562</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>879</v>
@@ -3653,13 +3671,13 @@
         <v>892255</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3674,13 +3692,13 @@
         <v>1965049</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>2284</v>
@@ -3689,13 +3707,13 @@
         <v>2338375</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>4207</v>
@@ -3704,13 +3722,13 @@
         <v>4303424</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,7 +3784,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3790,7 +3808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C8DEDE-EDBB-49FF-83B8-1BD1E5AA242E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6E3334-0FC7-4E39-B12A-7755F48DB919}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3807,7 +3825,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3912,39 +3930,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,39 +3975,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,39 +4020,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,13 +4069,13 @@
         <v>114159</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>74</v>
@@ -4066,13 +4084,13 @@
         <v>77560</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>179</v>
@@ -4081,13 +4099,13 @@
         <v>191719</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4102,13 +4120,13 @@
         <v>292171</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>328</v>
@@ -4117,13 +4135,13 @@
         <v>360263</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>605</v>
@@ -4132,13 +4150,13 @@
         <v>652434</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4206,13 +4224,13 @@
         <v>81594</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -4221,13 +4239,13 @@
         <v>65587</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>33</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M10" s="7">
         <v>140</v>
@@ -4236,13 +4254,13 @@
         <v>147182</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4257,13 +4275,13 @@
         <v>212070</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H11" s="7">
         <v>244</v>
@@ -4272,13 +4290,13 @@
         <v>263165</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>43</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>454</v>
@@ -4287,13 +4305,13 @@
         <v>475234</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4361,13 +4379,13 @@
         <v>164127</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>105</v>
@@ -4376,13 +4394,13 @@
         <v>112935</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>261</v>
@@ -4391,13 +4409,13 @@
         <v>277063</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4412,13 +4430,13 @@
         <v>399510</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H14" s="7">
         <v>443</v>
@@ -4427,13 +4445,13 @@
         <v>479119</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M14" s="7">
         <v>817</v>
@@ -4442,13 +4460,13 @@
         <v>878628</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4534,10 +4552,10 @@
         <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>147</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>93</v>
@@ -4546,13 +4564,13 @@
         <v>98736</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4567,13 +4585,13 @@
         <v>136807</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>147</v>
@@ -4582,13 +4600,13 @@
         <v>152089</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>157</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>272</v>
@@ -4597,13 +4615,13 @@
         <v>288896</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,13 +4689,13 @@
         <v>81238</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>60</v>
@@ -4686,13 +4704,13 @@
         <v>61686</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
         <v>138</v>
@@ -4701,13 +4719,13 @@
         <v>142924</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,13 +4740,13 @@
         <v>168735</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>194</v>
@@ -4737,13 +4755,13 @@
         <v>203144</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>354</v>
@@ -4752,13 +4770,13 @@
         <v>371879</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4826,13 +4844,13 @@
         <v>117584</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
         <v>74</v>
@@ -4841,13 +4859,13 @@
         <v>82703</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>185</v>
@@ -4856,13 +4874,13 @@
         <v>200286</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +4895,13 @@
         <v>457507</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H23" s="7">
         <v>497</v>
@@ -4892,13 +4910,13 @@
         <v>542256</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M23" s="7">
         <v>923</v>
@@ -4907,13 +4925,13 @@
         <v>999764</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4981,13 +4999,13 @@
         <v>106244</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>76</v>
+        <v>290</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="H25" s="7">
         <v>98</v>
@@ -4996,13 +5014,13 @@
         <v>107909</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M25" s="7">
         <v>192</v>
@@ -5011,13 +5029,13 @@
         <v>214153</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5032,13 +5050,13 @@
         <v>527661</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>173</v>
+        <v>299</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="H26" s="7">
         <v>547</v>
@@ -5047,13 +5065,13 @@
         <v>593321</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="M26" s="7">
         <v>1037</v>
@@ -5062,13 +5080,13 @@
         <v>1120982</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,13 +5154,13 @@
         <v>720197</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="H28" s="7">
         <v>514</v>
@@ -5151,13 +5169,13 @@
         <v>551865</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>151</v>
+        <v>310</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="M28" s="7">
         <v>1188</v>
@@ -5166,13 +5184,13 @@
         <v>1272062</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,13 +5205,13 @@
         <v>2194461</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="H29" s="7">
         <v>2400</v>
@@ -5202,28 +5220,28 @@
         <v>2593356</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>159</v>
+        <v>319</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="M29" s="7">
         <v>4462</v>
       </c>
       <c r="N29" s="7">
-        <v>4787817</v>
+        <v>4787818</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,7 +5283,7 @@
         <v>5650</v>
       </c>
       <c r="N30" s="7">
-        <v>6059879</v>
+        <v>6059880</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5279,7 +5297,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5303,7 +5321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854527A9-78FC-4892-8EC1-D9DC5B7E34D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8538EFA2-A083-410A-859C-E6B35B021D7E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5320,7 +5338,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5427,13 +5445,13 @@
         <v>50097</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>254</v>
       </c>
       <c r="H4" s="7">
         <v>32</v>
@@ -5442,13 +5460,13 @@
         <v>34509</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>93</v>
+        <v>329</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="M4" s="7">
         <v>76</v>
@@ -5460,10 +5478,10 @@
         <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,13 +5496,13 @@
         <v>195121</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>325</v>
+        <v>264</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="H5" s="7">
         <v>206</v>
@@ -5493,13 +5511,13 @@
         <v>210730</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>103</v>
+        <v>337</v>
       </c>
       <c r="M5" s="7">
         <v>383</v>
@@ -5511,10 +5529,10 @@
         <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5582,13 +5600,13 @@
         <v>66706</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="H7" s="7">
         <v>47</v>
@@ -5597,13 +5615,13 @@
         <v>50779</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>335</v>
+        <v>52</v>
       </c>
       <c r="M7" s="7">
         <v>112</v>
@@ -5612,13 +5630,13 @@
         <v>117485</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5633,13 +5651,13 @@
         <v>296459</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="H8" s="7">
         <v>325</v>
@@ -5648,13 +5666,13 @@
         <v>342548</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>343</v>
+        <v>62</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="M8" s="7">
         <v>602</v>
@@ -5663,13 +5681,13 @@
         <v>639007</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5737,13 +5755,13 @@
         <v>32145</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -5752,13 +5770,13 @@
         <v>25724</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="M10" s="7">
         <v>60</v>
@@ -5767,13 +5785,13 @@
         <v>57869</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5785,16 +5803,16 @@
         <v>269</v>
       </c>
       <c r="D11" s="7">
-        <v>258362</v>
+        <v>258361</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="H11" s="7">
         <v>279</v>
@@ -5803,13 +5821,13 @@
         <v>282040</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="M11" s="7">
         <v>548</v>
@@ -5818,13 +5836,13 @@
         <v>540401</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5836,7 +5854,7 @@
         <v>303</v>
       </c>
       <c r="D12" s="7">
-        <v>290507</v>
+        <v>290506</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5892,13 +5910,13 @@
         <v>76163</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>165</v>
+        <v>373</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -5907,13 +5925,13 @@
         <v>46272</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="M13" s="7">
         <v>114</v>
@@ -5922,13 +5940,13 @@
         <v>122435</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>110</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5943,13 +5961,13 @@
         <v>253884</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="H14" s="7">
         <v>280</v>
@@ -5958,13 +5976,13 @@
         <v>302589</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>376</v>
+        <v>319</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="M14" s="7">
         <v>523</v>
@@ -5973,13 +5991,13 @@
         <v>556473</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>118</v>
+        <v>386</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6047,13 +6065,13 @@
         <v>19876</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -6062,13 +6080,13 @@
         <v>23122</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
@@ -6077,13 +6095,13 @@
         <v>42997</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6098,13 +6116,13 @@
         <v>99346</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>64</v>
+        <v>397</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="H17" s="7">
         <v>130</v>
@@ -6113,13 +6131,13 @@
         <v>122378</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="M17" s="7">
         <v>228</v>
@@ -6128,13 +6146,13 @@
         <v>221725</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6202,13 +6220,13 @@
         <v>66031</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="H19" s="7">
         <v>46</v>
@@ -6217,13 +6235,13 @@
         <v>50047</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>336</v>
+        <v>410</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="M19" s="7">
         <v>111</v>
@@ -6232,13 +6250,13 @@
         <v>116079</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6253,13 +6271,13 @@
         <v>167584</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="H20" s="7">
         <v>194</v>
@@ -6268,13 +6286,13 @@
         <v>197090</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>345</v>
+        <v>420</v>
       </c>
       <c r="M20" s="7">
         <v>359</v>
@@ -6283,13 +6301,13 @@
         <v>364674</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6357,13 +6375,13 @@
         <v>59901</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="H22" s="7">
         <v>45</v>
@@ -6372,13 +6390,13 @@
         <v>50285</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="M22" s="7">
         <v>97</v>
@@ -6387,13 +6405,13 @@
         <v>110186</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6408,13 +6426,13 @@
         <v>382406</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="H23" s="7">
         <v>416</v>
@@ -6423,13 +6441,13 @@
         <v>436766</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="M23" s="7">
         <v>750</v>
@@ -6438,13 +6456,13 @@
         <v>819172</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6512,13 +6530,13 @@
         <v>104808</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="H25" s="7">
         <v>84</v>
@@ -6527,13 +6545,13 @@
         <v>92606</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>274</v>
+        <v>170</v>
       </c>
       <c r="M25" s="7">
         <v>187</v>
@@ -6542,13 +6560,13 @@
         <v>197414</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6563,28 +6581,28 @@
         <v>535444</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="H26" s="7">
         <v>551</v>
       </c>
       <c r="I26" s="7">
-        <v>598735</v>
+        <v>598736</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>282</v>
+        <v>179</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="M26" s="7">
         <v>1064</v>
@@ -6593,13 +6611,13 @@
         <v>1134179</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6626,7 +6644,7 @@
         <v>635</v>
       </c>
       <c r="I27" s="7">
-        <v>691341</v>
+        <v>691342</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -6670,10 +6688,10 @@
         <v>17</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="H28" s="7">
         <v>345</v>
@@ -6682,10 +6700,10 @@
         <v>373344</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>149</v>
@@ -6697,13 +6715,13 @@
         <v>849072</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>430</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6721,10 +6739,10 @@
         <v>27</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="H29" s="7">
         <v>2381</v>
@@ -6733,13 +6751,13 @@
         <v>2492876</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>158</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="M29" s="7">
         <v>4457</v>
@@ -6748,13 +6766,13 @@
         <v>4681482</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>438</v>
+        <v>470</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6810,7 +6828,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6834,7 +6852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C46597-FAF2-4960-AA6E-4361B76955F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D6F303-D7C5-43C2-A13A-18A7E1BEA036}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6851,7 +6869,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6958,13 +6976,13 @@
         <v>36148</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>109</v>
+        <v>474</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="H4" s="7">
         <v>60</v>
@@ -6973,13 +6991,13 @@
         <v>29009</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="M4" s="7">
         <v>113</v>
@@ -6988,13 +7006,13 @@
         <v>65157</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7009,13 +7027,13 @@
         <v>219122</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>119</v>
+        <v>484</v>
       </c>
       <c r="H5" s="7">
         <v>471</v>
@@ -7024,13 +7042,13 @@
         <v>240435</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="M5" s="7">
         <v>735</v>
@@ -7039,13 +7057,13 @@
         <v>459558</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7113,13 +7131,13 @@
         <v>38396</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="H7" s="7">
         <v>61</v>
@@ -7128,13 +7146,13 @@
         <v>44118</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="M7" s="7">
         <v>93</v>
@@ -7143,13 +7161,13 @@
         <v>82514</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7164,13 +7182,13 @@
         <v>469108</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="H8" s="7">
         <v>635</v>
@@ -7179,13 +7197,13 @@
         <v>495976</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="M8" s="7">
         <v>974</v>
@@ -7194,13 +7212,13 @@
         <v>965084</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7268,13 +7286,13 @@
         <v>57043</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>92</v>
+        <v>510</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="H10" s="7">
         <v>93</v>
@@ -7283,13 +7301,13 @@
         <v>56923</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="M10" s="7">
         <v>171</v>
@@ -7298,13 +7316,13 @@
         <v>113966</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7319,13 +7337,13 @@
         <v>250290</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>101</v>
+        <v>519</v>
       </c>
       <c r="H11" s="7">
         <v>424</v>
@@ -7334,13 +7352,13 @@
         <v>301323</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="M11" s="7">
         <v>691</v>
@@ -7349,13 +7367,13 @@
         <v>551613</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7423,13 +7441,13 @@
         <v>51328</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="H13" s="7">
         <v>70</v>
@@ -7438,13 +7456,13 @@
         <v>40779</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>510</v>
+        <v>343</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="M13" s="7">
         <v>121</v>
@@ -7453,13 +7471,13 @@
         <v>92108</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7474,13 +7492,13 @@
         <v>268322</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
       <c r="H14" s="7">
         <v>524</v>
@@ -7489,13 +7507,13 @@
         <v>385373</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>519</v>
+        <v>350</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>520</v>
+        <v>536</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>521</v>
+        <v>537</v>
       </c>
       <c r="M14" s="7">
         <v>761</v>
@@ -7504,13 +7522,13 @@
         <v>653694</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>522</v>
+        <v>538</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>524</v>
+        <v>540</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7578,13 +7596,13 @@
         <v>38781</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>525</v>
+        <v>541</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>526</v>
+        <v>458</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>193</v>
+        <v>542</v>
       </c>
       <c r="H16" s="7">
         <v>69</v>
@@ -7593,13 +7611,13 @@
         <v>28962</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>527</v>
+        <v>543</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>528</v>
+        <v>544</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>529</v>
+        <v>545</v>
       </c>
       <c r="M16" s="7">
         <v>134</v>
@@ -7608,13 +7626,13 @@
         <v>67743</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>530</v>
+        <v>116</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>532</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7629,13 +7647,13 @@
         <v>146288</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>548</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>534</v>
+        <v>466</v>
       </c>
       <c r="H17" s="7">
         <v>408</v>
@@ -7644,13 +7662,13 @@
         <v>195963</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
       <c r="M17" s="7">
         <v>606</v>
@@ -7659,13 +7677,13 @@
         <v>342251</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>538</v>
+        <v>124</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>539</v>
+        <v>465</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7733,13 +7751,13 @@
         <v>52521</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="H19" s="7">
         <v>114</v>
@@ -7748,13 +7766,13 @@
         <v>52309</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="M19" s="7">
         <v>203</v>
@@ -7763,13 +7781,13 @@
         <v>104830</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>547</v>
+        <v>190</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>549</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7784,13 +7802,13 @@
         <v>208256</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="H20" s="7">
         <v>326</v>
@@ -7799,13 +7817,13 @@
         <v>211899</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="M20" s="7">
         <v>581</v>
@@ -7814,13 +7832,13 @@
         <v>420155</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>556</v>
+        <v>200</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>557</v>
+        <v>105</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7888,13 +7906,13 @@
         <v>74484</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>512</v>
+        <v>565</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>560</v>
+        <v>462</v>
       </c>
       <c r="H22" s="7">
         <v>90</v>
@@ -7903,13 +7921,13 @@
         <v>63038</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="M22" s="7">
         <v>163</v>
@@ -7918,13 +7936,13 @@
         <v>137521</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>564</v>
+        <v>431</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>565</v>
+        <v>361</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>566</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7939,13 +7957,13 @@
         <v>532765</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>520</v>
+        <v>570</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>567</v>
+        <v>469</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="H23" s="7">
         <v>833</v>
@@ -7954,13 +7972,13 @@
         <v>718671</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="M23" s="7">
         <v>1341</v>
@@ -7969,13 +7987,13 @@
         <v>1251437</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>572</v>
+        <v>441</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>573</v>
+        <v>439</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>574</v>
+        <v>371</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8046,10 +8064,10 @@
         <v>575</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>36</v>
+        <v>576</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>302</v>
+        <v>577</v>
       </c>
       <c r="H25" s="7">
         <v>127</v>
@@ -8058,13 +8076,13 @@
         <v>96558</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="M25" s="7">
         <v>300</v>
@@ -8073,13 +8091,13 @@
         <v>262573</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>580</v>
+        <v>76</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8094,13 +8112,13 @@
         <v>666998</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>311</v>
+        <v>584</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>46</v>
+        <v>585</v>
       </c>
       <c r="H26" s="7">
         <v>912</v>
@@ -8109,13 +8127,13 @@
         <v>755511</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="M26" s="7">
         <v>1482</v>
@@ -8124,13 +8142,13 @@
         <v>1422509</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>588</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8198,13 +8216,13 @@
         <v>514717</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>149</v>
+        <v>592</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="H28" s="7">
         <v>684</v>
@@ -8213,13 +8231,13 @@
         <v>411696</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>564</v>
+        <v>595</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="M28" s="7">
         <v>1298</v>
@@ -8228,13 +8246,13 @@
         <v>926413</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8249,13 +8267,13 @@
         <v>2761149</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>158</v>
+        <v>602</v>
       </c>
       <c r="H29" s="7">
         <v>4533</v>
@@ -8264,13 +8282,13 @@
         <v>3305152</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>572</v>
+        <v>605</v>
       </c>
       <c r="M29" s="7">
         <v>7171</v>
@@ -8279,13 +8297,13 @@
         <v>6066301</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8341,7 +8359,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C04-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C04-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{734DAEAF-4493-4C85-B94E-18B94ED6126D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EF2AADC-38A6-4A8A-B868-959A9F9D837D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{78A283C0-2798-4AFD-B611-93DA14BE484F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{49409E85-7B9D-42A0-91A4-34A6F2823F2E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="630">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -587,7 +587,58 @@
     <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2012 (Tasa respuesta: 86,83%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
   </si>
   <si>
     <t>28,1%</t>
@@ -692,58 +743,58 @@
     <t>79,73%</t>
   </si>
   <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
   </si>
   <si>
     <t>28,77%</t>
@@ -1460,412 +1511,424 @@
     <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2023 (Tasa respuesta: 96,87%)</t>
   </si>
   <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
     <t>14,16%</t>
   </si>
   <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
   </si>
   <si>
     <t>85,84%</t>
   </si>
   <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
   </si>
   <si>
     <t>19,82%</t>
   </si>
   <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
   </si>
   <si>
     <t>80,18%</t>
   </si>
   <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
   </si>
   <si>
     <t>15,58%</t>
   </si>
   <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
   </si>
   <si>
     <t>84,42%</t>
   </si>
   <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
   </si>
 </sst>
 </file>
@@ -2277,7 +2340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13EF290-846E-4BD2-AADE-615789B0E3CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B28AFC-3C9D-4C45-85D6-2BA085C08E3A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3808,7 +3871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6E3334-0FC7-4E39-B12A-7755F48DB919}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8225CFA1-B01B-48A6-B441-F375073F3115}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3926,43 +3989,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="D4" s="7">
+        <v>75119</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="I4" s="7">
+        <v>49876</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>118</v>
+      </c>
+      <c r="N4" s="7">
+        <v>124995</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3971,43 +4040,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>167</v>
+      </c>
+      <c r="D5" s="7">
+        <v>175441</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>178</v>
+      </c>
+      <c r="I5" s="7">
+        <v>199363</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>345</v>
+      </c>
+      <c r="N5" s="7">
+        <v>374805</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,43 +4091,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>241</v>
+      </c>
+      <c r="D6" s="7">
+        <v>250560</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>222</v>
+      </c>
+      <c r="I6" s="7">
+        <v>249239</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>463</v>
+      </c>
+      <c r="N6" s="7">
+        <v>499800</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,13 +4150,13 @@
         <v>114159</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="H7" s="7">
         <v>74</v>
@@ -4084,13 +4165,13 @@
         <v>77560</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="M7" s="7">
         <v>179</v>
@@ -4099,13 +4180,13 @@
         <v>191719</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4120,13 +4201,13 @@
         <v>292171</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="H8" s="7">
         <v>328</v>
@@ -4135,13 +4216,13 @@
         <v>360263</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="M8" s="7">
         <v>605</v>
@@ -4150,13 +4231,13 @@
         <v>652434</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4224,13 +4305,13 @@
         <v>81594</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -4242,10 +4323,10 @@
         <v>33</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="M10" s="7">
         <v>140</v>
@@ -4254,13 +4335,13 @@
         <v>147182</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4275,13 +4356,13 @@
         <v>212070</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="H11" s="7">
         <v>244</v>
@@ -4293,10 +4374,10 @@
         <v>43</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="M11" s="7">
         <v>454</v>
@@ -4305,13 +4386,13 @@
         <v>475234</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,49 +4454,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="D13" s="7">
-        <v>164127</v>
+        <v>89008</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="H13" s="7">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="I13" s="7">
-        <v>112935</v>
+        <v>63060</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="M13" s="7">
-        <v>261</v>
+        <v>143</v>
       </c>
       <c r="N13" s="7">
-        <v>277063</v>
+        <v>152067</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,49 +4505,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>374</v>
+        <v>207</v>
       </c>
       <c r="D14" s="7">
-        <v>399510</v>
+        <v>224069</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="H14" s="7">
-        <v>443</v>
+        <v>265</v>
       </c>
       <c r="I14" s="7">
-        <v>479119</v>
+        <v>279755</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="M14" s="7">
-        <v>817</v>
+        <v>472</v>
       </c>
       <c r="N14" s="7">
-        <v>878628</v>
+        <v>503824</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4475,10 +4556,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>530</v>
+        <v>289</v>
       </c>
       <c r="D15" s="7">
-        <v>563637</v>
+        <v>313077</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4490,10 +4571,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>548</v>
+        <v>326</v>
       </c>
       <c r="I15" s="7">
-        <v>592054</v>
+        <v>342815</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4505,10 +4586,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1078</v>
+        <v>615</v>
       </c>
       <c r="N15" s="7">
-        <v>1155691</v>
+        <v>655891</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4534,13 +4615,13 @@
         <v>55251</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="H16" s="7">
         <v>42</v>
@@ -4549,13 +4630,13 @@
         <v>43485</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="M16" s="7">
         <v>93</v>
@@ -4564,13 +4645,13 @@
         <v>98736</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4585,13 +4666,13 @@
         <v>136807</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="H17" s="7">
         <v>147</v>
@@ -4600,13 +4681,13 @@
         <v>152089</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="M17" s="7">
         <v>272</v>
@@ -4615,13 +4696,13 @@
         <v>288896</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4689,13 +4770,13 @@
         <v>81238</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="H19" s="7">
         <v>60</v>
@@ -4704,13 +4785,13 @@
         <v>61686</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="M19" s="7">
         <v>138</v>
@@ -4719,13 +4800,13 @@
         <v>142924</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4740,13 +4821,13 @@
         <v>168735</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="H20" s="7">
         <v>194</v>
@@ -4755,13 +4836,13 @@
         <v>203144</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="M20" s="7">
         <v>354</v>
@@ -4770,13 +4851,13 @@
         <v>371879</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4844,13 +4925,13 @@
         <v>117584</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="H22" s="7">
         <v>74</v>
@@ -4859,13 +4940,13 @@
         <v>82703</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="M22" s="7">
         <v>185</v>
@@ -4874,13 +4955,13 @@
         <v>200286</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4895,13 +4976,13 @@
         <v>457507</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="H23" s="7">
         <v>497</v>
@@ -4910,13 +4991,13 @@
         <v>542256</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="M23" s="7">
         <v>923</v>
@@ -4925,13 +5006,13 @@
         <v>999764</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4999,13 +5080,13 @@
         <v>106244</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="H25" s="7">
         <v>98</v>
@@ -5014,13 +5095,13 @@
         <v>107909</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="M25" s="7">
         <v>192</v>
@@ -5029,13 +5110,13 @@
         <v>214153</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5050,13 +5131,13 @@
         <v>527661</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="H26" s="7">
         <v>547</v>
@@ -5065,13 +5146,13 @@
         <v>593321</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="M26" s="7">
         <v>1037</v>
@@ -5080,13 +5161,13 @@
         <v>1120982</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,13 +5235,13 @@
         <v>720197</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="H28" s="7">
         <v>514</v>
@@ -5169,13 +5250,13 @@
         <v>551865</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="M28" s="7">
         <v>1188</v>
@@ -5184,13 +5265,13 @@
         <v>1272062</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,16 +5283,16 @@
         <v>2062</v>
       </c>
       <c r="D29" s="7">
-        <v>2194461</v>
+        <v>2194462</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="H29" s="7">
         <v>2400</v>
@@ -5220,28 +5301,28 @@
         <v>2593356</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="M29" s="7">
         <v>4462</v>
       </c>
       <c r="N29" s="7">
-        <v>4787818</v>
+        <v>4787817</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,7 +5334,7 @@
         <v>2736</v>
       </c>
       <c r="D30" s="7">
-        <v>2914658</v>
+        <v>2914659</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -5283,7 +5364,7 @@
         <v>5650</v>
       </c>
       <c r="N30" s="7">
-        <v>6059880</v>
+        <v>6059879</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5321,7 +5402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8538EFA2-A083-410A-859C-E6B35B021D7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A6F5DA-B743-488B-82DF-67680FB801EE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5338,7 +5419,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5445,13 +5526,13 @@
         <v>50097</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="H4" s="7">
         <v>32</v>
@@ -5460,13 +5541,13 @@
         <v>34509</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="M4" s="7">
         <v>76</v>
@@ -5478,10 +5559,10 @@
         <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5496,13 +5577,13 @@
         <v>195121</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="H5" s="7">
         <v>206</v>
@@ -5511,13 +5592,13 @@
         <v>210730</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="M5" s="7">
         <v>383</v>
@@ -5529,10 +5610,10 @@
         <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5600,13 +5681,13 @@
         <v>66706</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="H7" s="7">
         <v>47</v>
@@ -5615,10 +5696,10 @@
         <v>50779</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>52</v>
@@ -5630,13 +5711,13 @@
         <v>117485</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5651,13 +5732,13 @@
         <v>296459</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="H8" s="7">
         <v>325</v>
@@ -5666,13 +5747,13 @@
         <v>342548</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>62</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="M8" s="7">
         <v>602</v>
@@ -5681,13 +5762,13 @@
         <v>639007</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5755,13 +5836,13 @@
         <v>32145</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -5770,13 +5851,13 @@
         <v>25724</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="M10" s="7">
         <v>60</v>
@@ -5785,13 +5866,13 @@
         <v>57869</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,16 +5884,16 @@
         <v>269</v>
       </c>
       <c r="D11" s="7">
-        <v>258361</v>
+        <v>258362</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="H11" s="7">
         <v>279</v>
@@ -5821,13 +5902,13 @@
         <v>282040</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="M11" s="7">
         <v>548</v>
@@ -5836,13 +5917,13 @@
         <v>540401</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,7 +5935,7 @@
         <v>303</v>
       </c>
       <c r="D12" s="7">
-        <v>290506</v>
+        <v>290507</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5910,13 +5991,13 @@
         <v>76163</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -5925,13 +6006,13 @@
         <v>46272</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="M13" s="7">
         <v>114</v>
@@ -5940,13 +6021,13 @@
         <v>122435</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5961,13 +6042,13 @@
         <v>253884</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="H14" s="7">
         <v>280</v>
@@ -5976,13 +6057,13 @@
         <v>302589</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="M14" s="7">
         <v>523</v>
@@ -5991,13 +6072,13 @@
         <v>556473</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6065,13 +6146,13 @@
         <v>19876</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -6080,13 +6161,13 @@
         <v>23122</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
@@ -6095,13 +6176,13 @@
         <v>42997</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6116,13 +6197,13 @@
         <v>99346</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="H17" s="7">
         <v>130</v>
@@ -6131,13 +6212,13 @@
         <v>122378</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="M17" s="7">
         <v>228</v>
@@ -6146,13 +6227,13 @@
         <v>221725</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,13 +6301,13 @@
         <v>66031</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="H19" s="7">
         <v>46</v>
@@ -6235,13 +6316,13 @@
         <v>50047</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="M19" s="7">
         <v>111</v>
@@ -6250,13 +6331,13 @@
         <v>116079</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6271,13 +6352,13 @@
         <v>167584</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="H20" s="7">
         <v>194</v>
@@ -6286,13 +6367,13 @@
         <v>197090</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="M20" s="7">
         <v>359</v>
@@ -6301,13 +6382,13 @@
         <v>364674</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6375,13 +6456,13 @@
         <v>59901</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="H22" s="7">
         <v>45</v>
@@ -6390,13 +6471,13 @@
         <v>50285</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="M22" s="7">
         <v>97</v>
@@ -6405,13 +6486,13 @@
         <v>110186</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6426,13 +6507,13 @@
         <v>382406</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="H23" s="7">
         <v>416</v>
@@ -6441,13 +6522,13 @@
         <v>436766</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="M23" s="7">
         <v>750</v>
@@ -6456,13 +6537,13 @@
         <v>819172</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6530,13 +6611,13 @@
         <v>104808</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="H25" s="7">
         <v>84</v>
@@ -6545,10 +6626,10 @@
         <v>92606</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>170</v>
@@ -6560,13 +6641,13 @@
         <v>197414</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6581,28 +6662,28 @@
         <v>535444</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="H26" s="7">
         <v>551</v>
       </c>
       <c r="I26" s="7">
-        <v>598736</v>
+        <v>598735</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>179</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="M26" s="7">
         <v>1064</v>
@@ -6611,13 +6692,13 @@
         <v>1134179</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6644,7 +6725,7 @@
         <v>635</v>
       </c>
       <c r="I27" s="7">
-        <v>691342</v>
+        <v>691341</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -6688,10 +6769,10 @@
         <v>17</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="H28" s="7">
         <v>345</v>
@@ -6700,10 +6781,10 @@
         <v>373344</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>149</v>
@@ -6715,13 +6796,13 @@
         <v>849072</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,31 +6814,31 @@
         <v>2076</v>
       </c>
       <c r="D29" s="7">
-        <v>2188606</v>
+        <v>2188605</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="H29" s="7">
         <v>2381</v>
       </c>
       <c r="I29" s="7">
-        <v>2492876</v>
+        <v>2492877</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>158</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="M29" s="7">
         <v>4457</v>
@@ -6766,13 +6847,13 @@
         <v>4681482</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6784,7 +6865,7 @@
         <v>2530</v>
       </c>
       <c r="D30" s="7">
-        <v>2664334</v>
+        <v>2664333</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -6799,7 +6880,7 @@
         <v>2726</v>
       </c>
       <c r="I30" s="7">
-        <v>2866220</v>
+        <v>2866221</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -6852,7 +6933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D6F303-D7C5-43C2-A13A-18A7E1BEA036}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F0DEAE-251E-42B0-B5F1-5329054249EF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6869,7 +6950,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6973,46 +7054,46 @@
         <v>53</v>
       </c>
       <c r="D4" s="7">
-        <v>36148</v>
+        <v>40785</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="H4" s="7">
         <v>60</v>
       </c>
       <c r="I4" s="7">
-        <v>29009</v>
+        <v>30118</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="M4" s="7">
         <v>113</v>
       </c>
       <c r="N4" s="7">
-        <v>65157</v>
+        <v>70903</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7024,46 +7105,46 @@
         <v>264</v>
       </c>
       <c r="D5" s="7">
-        <v>219122</v>
+        <v>264645</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="H5" s="7">
         <v>471</v>
       </c>
       <c r="I5" s="7">
-        <v>240435</v>
+        <v>257489</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="M5" s="7">
         <v>735</v>
       </c>
       <c r="N5" s="7">
-        <v>459558</v>
+        <v>522134</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7075,7 +7156,7 @@
         <v>317</v>
       </c>
       <c r="D6" s="7">
-        <v>255270</v>
+        <v>305430</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7090,7 +7171,7 @@
         <v>531</v>
       </c>
       <c r="I6" s="7">
-        <v>269444</v>
+        <v>287607</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7105,7 +7186,7 @@
         <v>848</v>
       </c>
       <c r="N6" s="7">
-        <v>524715</v>
+        <v>593037</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7128,46 +7209,46 @@
         <v>32</v>
       </c>
       <c r="D7" s="7">
-        <v>38396</v>
+        <v>38899</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="H7" s="7">
         <v>61</v>
       </c>
       <c r="I7" s="7">
-        <v>44118</v>
+        <v>40993</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="M7" s="7">
         <v>93</v>
       </c>
       <c r="N7" s="7">
-        <v>82514</v>
+        <v>79892</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7179,46 +7260,46 @@
         <v>339</v>
       </c>
       <c r="D8" s="7">
-        <v>469108</v>
+        <v>468085</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="H8" s="7">
         <v>635</v>
       </c>
       <c r="I8" s="7">
-        <v>495976</v>
+        <v>460555</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="M8" s="7">
         <v>974</v>
       </c>
       <c r="N8" s="7">
-        <v>965084</v>
+        <v>928640</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7230,7 +7311,7 @@
         <v>371</v>
       </c>
       <c r="D9" s="7">
-        <v>507504</v>
+        <v>506984</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7245,7 +7326,7 @@
         <v>696</v>
       </c>
       <c r="I9" s="7">
-        <v>540094</v>
+        <v>501548</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7260,7 +7341,7 @@
         <v>1067</v>
       </c>
       <c r="N9" s="7">
-        <v>1047598</v>
+        <v>1008532</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7283,46 +7364,46 @@
         <v>78</v>
       </c>
       <c r="D10" s="7">
-        <v>57043</v>
+        <v>54870</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>509</v>
+        <v>95</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>511</v>
+        <v>206</v>
       </c>
       <c r="H10" s="7">
         <v>93</v>
       </c>
       <c r="I10" s="7">
-        <v>56923</v>
+        <v>52908</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>391</v>
+        <v>525</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>512</v>
+        <v>359</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="M10" s="7">
         <v>171</v>
       </c>
       <c r="N10" s="7">
-        <v>113966</v>
+        <v>107778</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>514</v>
+        <v>152</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7334,46 +7415,46 @@
         <v>267</v>
       </c>
       <c r="D11" s="7">
-        <v>250290</v>
+        <v>246322</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>517</v>
+        <v>104</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>518</v>
+        <v>215</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="H11" s="7">
         <v>424</v>
       </c>
       <c r="I11" s="7">
-        <v>301323</v>
+        <v>282367</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>400</v>
+        <v>530</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>521</v>
+        <v>366</v>
       </c>
       <c r="M11" s="7">
         <v>691</v>
       </c>
       <c r="N11" s="7">
-        <v>551613</v>
+        <v>528689</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>522</v>
+        <v>161</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7385,7 +7466,7 @@
         <v>345</v>
       </c>
       <c r="D12" s="7">
-        <v>307333</v>
+        <v>301192</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7400,7 +7481,7 @@
         <v>517</v>
       </c>
       <c r="I12" s="7">
-        <v>358246</v>
+        <v>335275</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7415,7 +7496,7 @@
         <v>862</v>
       </c>
       <c r="N12" s="7">
-        <v>665579</v>
+        <v>636467</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7438,46 +7519,46 @@
         <v>51</v>
       </c>
       <c r="D13" s="7">
-        <v>51328</v>
+        <v>49848</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>525</v>
+        <v>128</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="H13" s="7">
         <v>70</v>
       </c>
       <c r="I13" s="7">
-        <v>40779</v>
+        <v>37739</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>343</v>
+        <v>536</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>529</v>
+        <v>371</v>
       </c>
       <c r="M13" s="7">
         <v>121</v>
       </c>
       <c r="N13" s="7">
-        <v>92108</v>
+        <v>87587</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7489,46 +7570,46 @@
         <v>237</v>
       </c>
       <c r="D14" s="7">
-        <v>268322</v>
+        <v>260272</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>533</v>
+        <v>138</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="H14" s="7">
         <v>524</v>
       </c>
       <c r="I14" s="7">
-        <v>385373</v>
+        <v>435726</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>350</v>
+        <v>543</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>536</v>
+        <v>380</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="M14" s="7">
         <v>761</v>
       </c>
       <c r="N14" s="7">
-        <v>653694</v>
+        <v>695998</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7540,7 +7621,7 @@
         <v>288</v>
       </c>
       <c r="D15" s="7">
-        <v>319650</v>
+        <v>310120</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7555,7 +7636,7 @@
         <v>594</v>
       </c>
       <c r="I15" s="7">
-        <v>426152</v>
+        <v>473465</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7570,7 +7651,7 @@
         <v>882</v>
       </c>
       <c r="N15" s="7">
-        <v>745802</v>
+        <v>783585</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7593,46 +7674,46 @@
         <v>65</v>
       </c>
       <c r="D16" s="7">
-        <v>38781</v>
+        <v>35463</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>458</v>
+        <v>549</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="H16" s="7">
         <v>69</v>
       </c>
       <c r="I16" s="7">
-        <v>28962</v>
+        <v>26441</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="M16" s="7">
         <v>134</v>
       </c>
       <c r="N16" s="7">
-        <v>67743</v>
+        <v>61904</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>116</v>
+        <v>554</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>459</v>
+        <v>556</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7644,46 +7725,46 @@
         <v>198</v>
       </c>
       <c r="D17" s="7">
-        <v>146288</v>
+        <v>132966</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>466</v>
+        <v>559</v>
       </c>
       <c r="H17" s="7">
         <v>408</v>
       </c>
       <c r="I17" s="7">
-        <v>195963</v>
+        <v>175851</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="M17" s="7">
         <v>606</v>
       </c>
       <c r="N17" s="7">
-        <v>342251</v>
+        <v>308817</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>124</v>
+        <v>563</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>465</v>
+        <v>564</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7695,7 +7776,7 @@
         <v>263</v>
       </c>
       <c r="D18" s="7">
-        <v>185069</v>
+        <v>168429</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7710,7 +7791,7 @@
         <v>477</v>
       </c>
       <c r="I18" s="7">
-        <v>224925</v>
+        <v>202292</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7725,7 +7806,7 @@
         <v>740</v>
       </c>
       <c r="N18" s="7">
-        <v>409994</v>
+        <v>370721</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7748,46 +7829,46 @@
         <v>89</v>
       </c>
       <c r="D19" s="7">
-        <v>52521</v>
+        <v>50285</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="H19" s="7">
         <v>114</v>
       </c>
       <c r="I19" s="7">
-        <v>52309</v>
+        <v>48900</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>554</v>
+        <v>570</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="M19" s="7">
         <v>203</v>
       </c>
       <c r="N19" s="7">
-        <v>104830</v>
+        <v>99185</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>190</v>
+        <v>572</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>97</v>
+        <v>574</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7799,46 +7880,46 @@
         <v>255</v>
       </c>
       <c r="D20" s="7">
-        <v>208256</v>
+        <v>203447</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>559</v>
+        <v>575</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>560</v>
+        <v>576</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>561</v>
+        <v>577</v>
       </c>
       <c r="H20" s="7">
         <v>326</v>
       </c>
       <c r="I20" s="7">
-        <v>211899</v>
+        <v>197450</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>562</v>
+        <v>578</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>561</v>
+        <v>580</v>
       </c>
       <c r="M20" s="7">
         <v>581</v>
       </c>
       <c r="N20" s="7">
-        <v>420155</v>
+        <v>400897</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>200</v>
+        <v>581</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>582</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7850,7 +7931,7 @@
         <v>344</v>
       </c>
       <c r="D21" s="7">
-        <v>260777</v>
+        <v>253732</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7865,7 +7946,7 @@
         <v>440</v>
       </c>
       <c r="I21" s="7">
-        <v>264208</v>
+        <v>246350</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7880,7 +7961,7 @@
         <v>784</v>
       </c>
       <c r="N21" s="7">
-        <v>524985</v>
+        <v>500082</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7903,46 +7984,46 @@
         <v>73</v>
       </c>
       <c r="D22" s="7">
-        <v>74484</v>
+        <v>73411</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>565</v>
+        <v>584</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>462</v>
+        <v>344</v>
       </c>
       <c r="H22" s="7">
         <v>90</v>
       </c>
       <c r="I22" s="7">
-        <v>63038</v>
+        <v>58863</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>568</v>
+        <v>587</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>569</v>
+        <v>588</v>
       </c>
       <c r="M22" s="7">
         <v>163</v>
       </c>
       <c r="N22" s="7">
-        <v>137521</v>
+        <v>132274</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>431</v>
+        <v>589</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>361</v>
+        <v>590</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>430</v>
+        <v>591</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7954,46 +8035,46 @@
         <v>508</v>
       </c>
       <c r="D23" s="7">
-        <v>532765</v>
+        <v>526284</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>469</v>
+        <v>351</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>571</v>
+        <v>593</v>
       </c>
       <c r="H23" s="7">
         <v>833</v>
       </c>
       <c r="I23" s="7">
-        <v>718671</v>
+        <v>769502</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>572</v>
+        <v>594</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>573</v>
+        <v>595</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>574</v>
+        <v>596</v>
       </c>
       <c r="M23" s="7">
         <v>1341</v>
       </c>
       <c r="N23" s="7">
-        <v>1251437</v>
+        <v>1295786</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>441</v>
+        <v>597</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>439</v>
+        <v>598</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>371</v>
+        <v>599</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8005,7 +8086,7 @@
         <v>581</v>
       </c>
       <c r="D24" s="7">
-        <v>607249</v>
+        <v>599695</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8020,7 +8101,7 @@
         <v>923</v>
       </c>
       <c r="I24" s="7">
-        <v>781709</v>
+        <v>828365</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8035,7 +8116,7 @@
         <v>1504</v>
       </c>
       <c r="N24" s="7">
-        <v>1388958</v>
+        <v>1428060</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8058,46 +8139,46 @@
         <v>173</v>
       </c>
       <c r="D25" s="7">
-        <v>166015</v>
+        <v>141416</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>575</v>
+        <v>600</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>576</v>
+        <v>601</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>577</v>
+        <v>602</v>
       </c>
       <c r="H25" s="7">
         <v>127</v>
       </c>
       <c r="I25" s="7">
-        <v>96558</v>
+        <v>80439</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>578</v>
+        <v>603</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>579</v>
+        <v>604</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>580</v>
+        <v>441</v>
       </c>
       <c r="M25" s="7">
         <v>300</v>
       </c>
       <c r="N25" s="7">
-        <v>262573</v>
+        <v>221855</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>76</v>
+        <v>606</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>582</v>
+        <v>607</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8109,46 +8190,46 @@
         <v>570</v>
       </c>
       <c r="D26" s="7">
-        <v>666998</v>
+        <v>766126</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>583</v>
+        <v>608</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>584</v>
+        <v>609</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>585</v>
+        <v>610</v>
       </c>
       <c r="H26" s="7">
         <v>912</v>
       </c>
       <c r="I26" s="7">
-        <v>755511</v>
+        <v>623485</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>587</v>
+        <v>450</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>588</v>
+        <v>612</v>
       </c>
       <c r="M26" s="7">
         <v>1482</v>
       </c>
       <c r="N26" s="7">
-        <v>1422509</v>
+        <v>1389612</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>589</v>
+        <v>613</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>590</v>
+        <v>614</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>85</v>
+        <v>615</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8160,7 +8241,7 @@
         <v>743</v>
       </c>
       <c r="D27" s="7">
-        <v>833013</v>
+        <v>907542</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8175,7 +8256,7 @@
         <v>1039</v>
       </c>
       <c r="I27" s="7">
-        <v>852069</v>
+        <v>703924</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8190,7 +8271,7 @@
         <v>1782</v>
       </c>
       <c r="N27" s="7">
-        <v>1685082</v>
+        <v>1611467</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8213,46 +8294,46 @@
         <v>614</v>
       </c>
       <c r="D28" s="7">
-        <v>514717</v>
+        <v>484977</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>591</v>
+        <v>616</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>592</v>
+        <v>109</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>593</v>
+        <v>617</v>
       </c>
       <c r="H28" s="7">
         <v>684</v>
       </c>
       <c r="I28" s="7">
-        <v>411696</v>
+        <v>376402</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>594</v>
+        <v>618</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>595</v>
+        <v>619</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>596</v>
+        <v>620</v>
       </c>
       <c r="M28" s="7">
         <v>1298</v>
       </c>
       <c r="N28" s="7">
-        <v>926413</v>
+        <v>861379</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>597</v>
+        <v>621</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>598</v>
+        <v>15</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>599</v>
+        <v>622</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8264,46 +8345,46 @@
         <v>2638</v>
       </c>
       <c r="D29" s="7">
-        <v>2761149</v>
+        <v>2868148</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>600</v>
+        <v>623</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>601</v>
+        <v>624</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>602</v>
+        <v>119</v>
       </c>
       <c r="H29" s="7">
         <v>4533</v>
       </c>
       <c r="I29" s="7">
-        <v>3305152</v>
+        <v>3202425</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>603</v>
+        <v>625</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>604</v>
+        <v>626</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>605</v>
+        <v>627</v>
       </c>
       <c r="M29" s="7">
         <v>7171</v>
       </c>
       <c r="N29" s="7">
-        <v>6066301</v>
+        <v>6070573</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>606</v>
+        <v>628</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>607</v>
+        <v>629</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>608</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8315,7 +8396,7 @@
         <v>3252</v>
       </c>
       <c r="D30" s="7">
-        <v>3275866</v>
+        <v>3353125</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8330,7 +8411,7 @@
         <v>5217</v>
       </c>
       <c r="I30" s="7">
-        <v>3716848</v>
+        <v>3578827</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8345,7 +8426,7 @@
         <v>8469</v>
       </c>
       <c r="N30" s="7">
-        <v>6992714</v>
+        <v>6931952</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
